--- a/data_samples/archived/week-7/next-week.xlsx
+++ b/data_samples/archived/week-7/next-week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA1D28-A753-4253-872D-F59A94E6FB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8AD082-F9B1-44B5-9E46-F15431D47CEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3640" yWindow="4720" windowWidth="7100" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,7 +208,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -553,7 +552,7 @@
   <dimension ref="A1:H2265"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,11 +606,13 @@
       <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14">
-        <v>1.76</v>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="5">
+        <v>1.4</v>
       </c>
-      <c r="H2" s="14">
-        <v>2.2400000000000002</v>
+      <c r="H2" s="5">
+        <v>2.96</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -627,11 +628,13 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="14">
-        <v>2.2799999999999998</v>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="5">
+        <v>2.5499999999999998</v>
       </c>
-      <c r="H3" s="14">
-        <v>1.75</v>
+      <c r="H3" s="5">
+        <v>1.52</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -647,11 +650,13 @@
       <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="14">
-        <v>18</v>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="5">
+        <v>13</v>
       </c>
-      <c r="H4" s="14">
-        <v>1.05</v>
+      <c r="H4" s="5">
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -667,11 +672,13 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="14">
-        <v>2</v>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="5">
+        <v>2.02</v>
       </c>
-      <c r="H5" s="14">
-        <v>1.98</v>
+      <c r="H5" s="5">
+        <v>1.85</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -687,11 +694,13 @@
       <c r="D6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14">
-        <v>2.74</v>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="5">
+        <v>1.82</v>
       </c>
-      <c r="H6" s="14">
-        <v>1.56</v>
+      <c r="H6" s="5">
+        <v>2.02</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -707,11 +716,13 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="14">
-        <v>1.66</v>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="5">
+        <v>1.51</v>
       </c>
-      <c r="H7" s="14">
-        <v>2.46</v>
+      <c r="H7" s="5">
+        <v>2.56</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -727,11 +738,13 @@
       <c r="D8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="14">
-        <v>1.96</v>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="5">
+        <v>2.17</v>
       </c>
-      <c r="H8" s="14">
-        <v>2.02</v>
+      <c r="H8" s="5">
+        <v>1.69</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -747,11 +760,13 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="14">
-        <v>1.53</v>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="5">
+        <v>1.28</v>
       </c>
-      <c r="H9" s="14">
-        <v>2.8</v>
+      <c r="H9" s="5">
+        <v>3.73</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -767,11 +782,13 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="14">
-        <v>2.56</v>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" s="5">
+        <v>1.7</v>
       </c>
-      <c r="H10" s="14">
-        <v>1.63</v>
+      <c r="H10" s="5">
+        <v>2.16</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
